--- a/documentation-generator/vocab_csv/legal_basis.xlsx
+++ b/documentation-generator/vocab_csv/legal_basis.xlsx
@@ -766,6 +766,48 @@
     </r>
   </si>
   <si>
+    <t>isIndicatedBy</t>
+  </si>
+  <si>
+    <t>is indicated by</t>
+  </si>
+  <si>
+    <t>Specifies entity who indicates the specific context</t>
+  </si>
+  <si>
+    <t>dpv:Entity</t>
+  </si>
+  <si>
+    <t>hasIndicationMethod</t>
+  </si>
+  <si>
+    <t>has indication method</t>
+  </si>
+  <si>
+    <t>Specifies the method by which an entity has indicated the specific context</t>
+  </si>
+  <si>
+    <t>isIndicatedAtTime</t>
+  </si>
+  <si>
+    <t>is indicated at time</t>
+  </si>
+  <si>
+    <t>Specifies the temporal information for when the entity has indicated the specific context</t>
+  </si>
+  <si>
+    <t>hasConsentStatus</t>
+  </si>
+  <si>
+    <t>has consent status</t>
+  </si>
+  <si>
+    <t>Specifies the state or status of consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deprecated </t>
+  </si>
+  <si>
     <t>hasExpiry</t>
   </si>
   <si>
@@ -924,48 +966,6 @@
   </si>
   <si>
     <t>The conditions for what is considered 'explicit consent' differ by norms and laws.</t>
-  </si>
-  <si>
-    <t>isIndicatedBy</t>
-  </si>
-  <si>
-    <t>is indicated by</t>
-  </si>
-  <si>
-    <t>Specifies entity who indicates the specific context</t>
-  </si>
-  <si>
-    <t>dpv:Entity</t>
-  </si>
-  <si>
-    <t>hasIndicationMethod</t>
-  </si>
-  <si>
-    <t>has indication method</t>
-  </si>
-  <si>
-    <t>Specifies the method by which an entity has indicated the specific context</t>
-  </si>
-  <si>
-    <t>isIndicatedAtTime</t>
-  </si>
-  <si>
-    <t>is indicated at time</t>
-  </si>
-  <si>
-    <t>Specifies the temporal information for when the entity has indicated the specific context</t>
-  </si>
-  <si>
-    <t>hasConsentStatus</t>
-  </si>
-  <si>
-    <t>has consent status</t>
-  </si>
-  <si>
-    <t>Specifies the state or status of consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3755,30 +3755,32 @@
       <c r="A2" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="19" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L2" s="22">
-        <v>44734.0</v>
-      </c>
+        <v>44733.0</v>
+      </c>
+      <c r="L2" s="20"/>
       <c r="M2" s="19" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="O2" s="23" t="s">
         <v>103</v>
@@ -3799,34 +3801,32 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>44734.0</v>
-      </c>
+        <v>44733.0</v>
+      </c>
+      <c r="L3" s="20"/>
       <c r="M3" s="19" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="O3" s="23" t="s">
         <v>103</v>
@@ -3847,36 +3847,32 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="19" t="s">
-        <v>201</v>
-      </c>
+      <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>44734.0</v>
-      </c>
+        <v>44733.0</v>
+      </c>
+      <c r="L4" s="20"/>
       <c r="M4" s="19" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="O4" s="23" t="s">
         <v>103</v>
@@ -3897,34 +3893,34 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+        <v>201</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="32" t="s">
-        <v>205</v>
-      </c>
+      <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>44734.0</v>
-      </c>
+        <v>44733.0</v>
+      </c>
+      <c r="L5" s="20"/>
       <c r="M5" s="19" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>103</v>
@@ -3944,108 +3940,24 @@
       <c r="AB5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>44734.0</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>44734.0</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="A7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>214</v>
+        <v>203</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>204</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -4061,10 +3973,10 @@
         <v>44734.0</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>103</v>
@@ -4085,24 +3997,22 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="19" t="s">
-        <v>220</v>
-      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="22">
         <v>43560.0</v>
@@ -4111,10 +4021,10 @@
         <v>44734.0</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>103</v>
@@ -4135,23 +4045,23 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="22">
@@ -4161,10 +4071,10 @@
         <v>44734.0</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O10" s="23" t="s">
         <v>103</v>
@@ -4185,21 +4095,21 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="33" t="s">
-        <v>228</v>
+      <c r="I11" s="32" t="s">
+        <v>219</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="22">
@@ -4209,46 +4119,44 @@
         <v>44734.0</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="33" t="s">
-        <v>232</v>
-      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="22">
         <v>43560.0</v>
@@ -4257,37 +4165,37 @@
         <v>44734.0</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O12" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4295,7 +4203,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="19" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="22">
@@ -4305,10 +4213,10 @@
         <v>44734.0</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O13" s="23" t="s">
         <v>103</v>
@@ -4329,24 +4237,20 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>238</v>
+        <v>227</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
-        <v>240</v>
-      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="19" t="s">
-        <v>241</v>
-      </c>
+      <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="22">
         <v>43560.0</v>
@@ -4355,10 +4259,10 @@
         <v>44734.0</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O14" s="23" t="s">
         <v>103</v>
@@ -4379,34 +4283,36 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>243</v>
+        <v>230</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D15" s="20"/>
       <c r="E15" s="19" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19" t="s">
+        <v>234</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="K15" s="22">
-        <v>44733.0</v>
-      </c>
-      <c r="L15" s="20"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L15" s="22">
+        <v>44734.0</v>
+      </c>
       <c r="M15" s="19" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="O15" s="23" t="s">
         <v>103</v>
@@ -4427,32 +4333,36 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>237</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="J16" s="20"/>
       <c r="K16" s="22">
-        <v>44733.0</v>
-      </c>
-      <c r="L16" s="20"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>44734.0</v>
+      </c>
       <c r="M16" s="19" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="O16" s="23" t="s">
         <v>103</v>
@@ -4473,127 +4383,210 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="33" t="s">
+        <v>242</v>
+      </c>
       <c r="J17" s="20"/>
       <c r="K17" s="22">
-        <v>44733.0</v>
-      </c>
-      <c r="L17" s="20"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L17" s="22">
+        <v>44734.0</v>
+      </c>
       <c r="M17" s="19" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="O17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>130</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="33" t="s">
+        <v>246</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="22">
-        <v>44733.0</v>
-      </c>
-      <c r="L18" s="20"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>44734.0</v>
+      </c>
       <c r="M18" s="19" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="O18" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="19"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A19" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L19" s="22">
+        <v>44734.0</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="22">
+        <v>43560.0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>44734.0</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB21">
+  <conditionalFormatting sqref="A2:AB20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB21">
+  <conditionalFormatting sqref="A2:AB20">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB100">
+  <conditionalFormatting sqref="A2:AB88">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>$M2="sunset"</formula>
     </cfRule>
@@ -4603,19 +4596,19 @@
     <hyperlink r:id="rId2" ref="O3"/>
     <hyperlink r:id="rId3" ref="O4"/>
     <hyperlink r:id="rId4" ref="O5"/>
-    <hyperlink r:id="rId5" ref="O6"/>
-    <hyperlink r:id="rId6" ref="O7"/>
-    <hyperlink r:id="rId7" ref="O8"/>
-    <hyperlink r:id="rId8" ref="O9"/>
-    <hyperlink r:id="rId9" ref="O10"/>
-    <hyperlink r:id="rId10" ref="O11"/>
-    <hyperlink r:id="rId11" ref="O12"/>
-    <hyperlink r:id="rId12" ref="O13"/>
-    <hyperlink r:id="rId13" ref="O14"/>
-    <hyperlink r:id="rId14" ref="O15"/>
-    <hyperlink r:id="rId15" ref="O16"/>
-    <hyperlink r:id="rId16" ref="O17"/>
-    <hyperlink r:id="rId17" ref="O18"/>
+    <hyperlink r:id="rId5" ref="O8"/>
+    <hyperlink r:id="rId6" ref="O9"/>
+    <hyperlink r:id="rId7" ref="O10"/>
+    <hyperlink r:id="rId8" ref="O11"/>
+    <hyperlink r:id="rId9" ref="O12"/>
+    <hyperlink r:id="rId10" ref="O13"/>
+    <hyperlink r:id="rId11" ref="O14"/>
+    <hyperlink r:id="rId12" ref="O15"/>
+    <hyperlink r:id="rId13" ref="O16"/>
+    <hyperlink r:id="rId14" ref="O17"/>
+    <hyperlink r:id="rId15" ref="O18"/>
+    <hyperlink r:id="rId16" ref="O19"/>
+    <hyperlink r:id="rId17" ref="O20"/>
   </hyperlinks>
   <drawing r:id="rId18"/>
 </worksheet>

--- a/documentation-generator/vocab_csv/legal_basis.xlsx
+++ b/documentation-generator/vocab_csv/legal_basis.xlsx
@@ -203,76 +203,76 @@
     <t>Legitimate Interests of the Data Subject in conducting specified processing</t>
   </si>
   <si>
+    <t>Georg P Krog</t>
+  </si>
+  <si>
+    <t>OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>Official Authority of Controller</t>
+  </si>
+  <si>
+    <t>Processing necessary or authorised through the official authority granted to or vested in the Data Controller</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2021/05/05-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>PublicInterest</t>
+  </si>
+  <si>
+    <t>Public Interest</t>
+  </si>
+  <si>
+    <t>Processing is necessary or beneficial for interest of the public or society at large</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2021/04/21-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>VitalInterest</t>
+  </si>
+  <si>
+    <t>Vital Interest</t>
+  </si>
+  <si>
+    <t>Processing is necessary or required to protect vital interests of a data subject or other natural person</t>
+  </si>
+  <si>
+    <t>VitalInterestOfDataSubject</t>
+  </si>
+  <si>
+    <t>Vital Interest of Data Subject</t>
+  </si>
+  <si>
+    <t>Processing is necessary or required to protect vital interests of a data subject</t>
+  </si>
+  <si>
+    <t>dpv:VitalInterestOfNaturalPerson</t>
+  </si>
+  <si>
+    <t>VitalInterestOfNaturalPerson</t>
+  </si>
+  <si>
+    <t>Vital Interest of Natural Person</t>
+  </si>
+  <si>
+    <t>Processing is necessary or required to protect vital interests of a natural person</t>
+  </si>
+  <si>
+    <t>dpv:VitalInterest</t>
+  </si>
+  <si>
+    <t>EULA</t>
+  </si>
+  <si>
+    <t>End User License Agreement (EULA)</t>
+  </si>
+  <si>
+    <t>End User License Agreement is a contract entered into between a software (or service) developer or provider with the user</t>
+  </si>
+  <si>
     <t>proposed</t>
-  </si>
-  <si>
-    <t>Georg P Krog</t>
-  </si>
-  <si>
-    <t>OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>Official Authority of Controller</t>
-  </si>
-  <si>
-    <t>Processing necessary or authorised through the official authority granted to or vested in the Data Controller</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2021/05/05-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>PublicInterest</t>
-  </si>
-  <si>
-    <t>Public Interest</t>
-  </si>
-  <si>
-    <t>Processing is necessary or beneficial for interest of the public or society at large</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2021/04/21-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>VitalInterest</t>
-  </si>
-  <si>
-    <t>Vital Interest</t>
-  </si>
-  <si>
-    <t>Processing is necessary or required to protect vital interests of a data subject or other natural person</t>
-  </si>
-  <si>
-    <t>VitalInterestOfDataSubject</t>
-  </si>
-  <si>
-    <t>Vital Interest of Data Subject</t>
-  </si>
-  <si>
-    <t>Processing is necessary or required to protect vital interests of a data subject</t>
-  </si>
-  <si>
-    <t>dpv:VitalInterestOfNaturalPerson</t>
-  </si>
-  <si>
-    <t>VitalInterestOfNaturalPerson</t>
-  </si>
-  <si>
-    <t>Vital Interest of Natural Person</t>
-  </si>
-  <si>
-    <t>Processing is necessary or required to protect vital interests of a natural person</t>
-  </si>
-  <si>
-    <t>dpv:VitalInterest</t>
-  </si>
-  <si>
-    <t>EULA</t>
-  </si>
-  <si>
-    <t>End User License Agreement (EULA)</t>
-  </si>
-  <si>
-    <t>End User License Agreement is a contract entered into between a software (or service) developer or provider with the user</t>
   </si>
   <si>
     <t>https://www.w3.org/2021/06/30-dpvcg-minutes.html</t>
@@ -2054,14 +2054,14 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="22">
-        <v>44838.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="20"/>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>26</v>
@@ -2110,7 +2110,7 @@
         <v>36</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>26</v>
@@ -2158,7 +2158,7 @@
         <v>27</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>26</v>
@@ -2206,7 +2206,7 @@
         <v>27</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>19</v>
@@ -2254,7 +2254,7 @@
         <v>36</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2272,16 +2272,16 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>19</v>
@@ -2302,7 +2302,7 @@
         <v>36</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>35</v>
@@ -2342,7 +2342,7 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="19" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="23" t="s">
@@ -2386,7 +2386,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="23" t="s">

--- a/documentation-generator/vocab_csv/legal_basis.xlsx
+++ b/documentation-generator/vocab_csv/legal_basis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="254">
   <si>
     <t>Term</t>
   </si>
@@ -817,7 +817,10 @@
     <t>Generic property specifying when or under which condition(s) the consent will expire</t>
   </si>
   <si>
-    <t>sunset</t>
+    <t>use dpv:hasDuration instead</t>
+  </si>
+  <si>
+    <t>deprecated</t>
   </si>
   <si>
     <t xml:space="preserve">Harshvardhan J. Pandit, Mark Lizar, Bud Bruegger
@@ -845,9 +848,6 @@
     <t>Specifies the condition or event that determines the expiry of consent</t>
   </si>
   <si>
-    <t>Can be TextOrDocumentOrURI</t>
-  </si>
-  <si>
     <t>hasProvisionMethod</t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>Specifies the method by which consent was provisioned or provided</t>
   </si>
   <si>
-    <t>Can be used to record information of how consent was provided e.g. by a click to a form, in writing, etc., by logging into a system and confirm per email, or with some additional authentication, etc.</t>
+    <t>use dpv:hasIndicationMethod instead</t>
   </si>
   <si>
     <t>hasProvisionTime</t>
@@ -869,6 +869,9 @@
     <t>Specifies the instant in time when consent was given</t>
   </si>
   <si>
+    <t>use dpv:isIndicatedAtTime instead</t>
+  </si>
+  <si>
     <t>hasWithdrawalMethod</t>
   </si>
   <si>
@@ -878,9 +881,6 @@
     <t>Specifries the method by which consent can be/has been withdrawn</t>
   </si>
   <si>
-    <t>Can be used to record information of how to withdraw consent, e.g. by a click to a form, in writing, etc., by logging into a system and confirm per email, or with some additional authentication, etc.</t>
-  </si>
-  <si>
     <t>hasWithdrawalTime</t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <t>dpv:LegalEntity</t>
   </si>
   <si>
-    <t>Normally this would be the dataSubject, but in some exceptional cases, the consent might be withdraawn on behalf by someone else, e.g. parents of minors.</t>
+    <t>use dpv:isIndicatedBy instead</t>
   </si>
   <si>
     <t>hasProvisionBy</t>
@@ -914,9 +914,6 @@
     <t>Specifies the entity that provisioned or provided consent</t>
   </si>
   <si>
-    <t>Normally this would be the dataSubject, but in some exceptional cases, the consent might be given on behalf by someone else, e.g. parents of minors.</t>
-  </si>
-  <si>
     <t>hasProvisionByJustification</t>
   </si>
   <si>
@@ -926,7 +923,7 @@
     <t>Specifies the justification for entity providing consent</t>
   </si>
   <si>
-    <t>This field can be used to proivde a justification why the provision was provided by another DataSubject or legal entity,  e.g. declariing the relationship (parent, guardian), in combination with the field provisionBy</t>
+    <t>use dpv:hasJustification instead</t>
   </si>
   <si>
     <t>hasWithdrawalByJustification</t>
@@ -938,9 +935,6 @@
     <t>Specifies the justification for entity withdrawing consent</t>
   </si>
   <si>
-    <t>This field can be used to proivde a justification why the weithdrawal was done by another DataSubject or legal entity, e.g. declariing the relationship (parent, guardian), in combination with the field withdrawalBy</t>
-  </si>
-  <si>
     <t>hasConsentNotice</t>
   </si>
   <si>
@@ -950,7 +944,7 @@
     <t>Specifies the notice provided in context of consent</t>
   </si>
   <si>
-    <t>The actual notice that the Data Subject received to consent to, either a text or link to a document, which should be usable to decide whether the form or consent was compliant to legislation, e.g. documenting how the user has been informed about rights and implications (such as, right to data portability,right to recitffy, right to erasure, right to restrict processing, right to object, rights regarding automated decision making or profiling, processors, third parties, sub-processors, outside-EEA transfers, automated decision-making, or other necessary details of the privacy-policy). Can be TextOrDocumentOrURI.</t>
+    <t>use dpv:hasNotice instead</t>
   </si>
   <si>
     <t>isExplicit</t>
@@ -965,7 +959,7 @@
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>The conditions for what is considered 'explicit consent' differ by norms and laws.</t>
+    <t>use dpv:ExplicitlyExpressedConsent instead</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1209,6 +1203,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3959,139 +3956,88 @@
       <c r="C8" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="K8" s="22">
         <v>43560.0</v>
       </c>
       <c r="L8" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+        <v>211</v>
+      </c>
       <c r="F9" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+        <v>212</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>206</v>
+      </c>
       <c r="K9" s="22">
         <v>43560.0</v>
       </c>
-      <c r="L9" s="22">
-        <v>44734.0</v>
+      <c r="L9" s="32">
+        <v>44899.0</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" s="20"/>
+      <c r="I10" s="29" t="s">
+        <v>206</v>
+      </c>
       <c r="K10" s="22">
         <v>43560.0</v>
       </c>
       <c r="L10" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
@@ -4103,43 +4049,24 @@
       <c r="C11" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="J11" s="20"/>
       <c r="K11" s="22">
         <v>43560.0</v>
       </c>
-      <c r="L11" s="22">
-        <v>44734.0</v>
+      <c r="L11" s="32">
+        <v>44899.0</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
@@ -4151,89 +4078,53 @@
       <c r="C12" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="K12" s="22">
         <v>43560.0</v>
       </c>
       <c r="L12" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O12" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="I13" s="33" t="s">
+        <v>219</v>
+      </c>
       <c r="K13" s="22">
         <v>43560.0</v>
       </c>
-      <c r="L13" s="22">
-        <v>44734.0</v>
+      <c r="L13" s="32">
+        <v>44899.0</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O13" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -4245,41 +4136,24 @@
       <c r="C14" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="K14" s="22">
         <v>43560.0</v>
       </c>
       <c r="L14" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
@@ -4291,45 +4165,27 @@
       <c r="C15" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="20"/>
       <c r="E15" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
       <c r="I15" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J15" s="20"/>
       <c r="K15" s="22">
         <v>43560.0</v>
       </c>
-      <c r="L15" s="22">
-        <v>44734.0</v>
+      <c r="L15" s="32">
+        <v>44899.0</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
@@ -4341,239 +4197,172 @@
       <c r="C16" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="20"/>
       <c r="E16" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="20"/>
+      <c r="I16" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="K16" s="22">
         <v>43560.0</v>
       </c>
       <c r="L16" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O16" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="I17" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="J17" s="20"/>
       <c r="K17" s="22">
         <v>43560.0</v>
       </c>
-      <c r="L17" s="22">
-        <v>44734.0</v>
+      <c r="L17" s="32">
+        <v>44899.0</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" s="20"/>
+      <c r="I18" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="K18" s="22">
         <v>43560.0</v>
       </c>
       <c r="L18" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O18" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="I19" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="J19" s="20"/>
       <c r="K19" s="22">
         <v>43560.0</v>
       </c>
-      <c r="L19" s="22">
-        <v>44734.0</v>
+      <c r="L19" s="32">
+        <v>44899.0</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="J20" s="20"/>
       <c r="K20" s="22">
         <v>43560.0</v>
       </c>
       <c r="L20" s="22">
-        <v>44734.0</v>
+        <v>44899.0</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB20">
